--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="комедия" sheetId="1" r:id="rId1"/>
+    <sheet name="Книги" sheetId="2" r:id="rId5"/>
+    <sheet name="Авторы" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +56,103 @@
   </si>
   <si>
     <t>Комедия</t>
+  </si>
+  <si>
+    <t>id книги</t>
+  </si>
+  <si>
+    <t>id автора</t>
+  </si>
+  <si>
+    <t>Наименование книги</t>
+  </si>
+  <si>
+    <t>Кол. Страниц</t>
+  </si>
+  <si>
+    <t>Жанр</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>id книги</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>id автора</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Наименование книги</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Кол. Страниц</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Жанр</t>
+    </r>
+  </si>
+  <si>
+    <t>three book</t>
+  </si>
+  <si>
+    <t>Uzhas</t>
+  </si>
+  <si>
+    <t>foo book</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>five book</t>
+  </si>
+  <si>
+    <t>six book</t>
+  </si>
+  <si>
+    <t>seven book</t>
+  </si>
+  <si>
+    <t>eight book</t>
+  </si>
+  <si>
+    <t>Fantazy</t>
+  </si>
+  <si>
+    <t>nine book</t>
+  </si>
+  <si>
+    <t>ten book</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>йцу</t>
+  </si>
+  <si>
+    <t>ужасы</t>
   </si>
 </sst>
 </file>
@@ -103,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -113,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,4 +567,212 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col customWidth="true" max="5" min="1" width="30"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>102</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3">
+        <v>106</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3">
+        <v>108</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1010</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -56,21 +56,6 @@
   </si>
   <si>
     <t>Комедия</t>
-  </si>
-  <si>
-    <t>id книги</t>
-  </si>
-  <si>
-    <t>id автора</t>
-  </si>
-  <si>
-    <t>Наименование книги</t>
-  </si>
-  <si>
-    <t>Кол. Страниц</t>
-  </si>
-  <si>
-    <t>Жанр</t>
   </si>
   <si>
     <r>
@@ -581,19 +566,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -611,13 +596,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -628,13 +613,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -645,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3">
         <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -662,13 +647,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3">
         <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -679,13 +664,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3">
         <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -696,13 +681,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3">
         <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -713,13 +698,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -730,13 +715,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3">
         <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -747,13 +732,13 @@
         <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3">
         <v>1010</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
